--- a/data/ibco전용/네이버 등록상품 번호.xlsx
+++ b/data/ibco전용/네이버 등록상품 번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\ibco전용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEE5253-427F-4D5C-9F8D-D70B3B4DE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02C74E-482F-4FD5-9050-17505887324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{1029F7D8-83C3-4E5A-9AFB-FD3A7215AC9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1029F7D8-83C3-4E5A-9AFB-FD3A7215AC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +136,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>키즈샴푸,트리트먼트</t>
+    <t>6807322663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8456471714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8461561251</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FFCEC-0421-4BA6-A3CB-C88F807874ED}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -959,7 +967,7 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -970,7 +978,7 @@
         <v>6960530156</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -984,12 +992,12 @@
         <v>6877044399</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="20">
-        <v>6807322663</v>
+      <c r="C19" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="20">
         <v>8456337460</v>
@@ -1000,8 +1008,11 @@
       <c r="F19" s="20">
         <v>6849973592</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>6849985439</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>7790475429</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1040,7 @@
       </c>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>8456391563</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1057,38 +1068,34 @@
         <v>8708803441</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="20">
-        <v>8456471714</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" s="20">
-        <v>8461561251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="20">
         <v>9085312445</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D26" s="20">
         <v>9085430258</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E26" s="20">
         <v>9085541435</v>
+      </c>
+      <c r="F26" s="19">
+        <v>8872723754</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>